--- a/Analyzed/raw/data_2016.xlsx
+++ b/Analyzed/raw/data_2016.xlsx
@@ -549,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="W2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X2">
         <v>5</v>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -625,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X3">
         <v>3</v>
@@ -634,7 +634,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>넥센 히어로즈</t>
+          <t>키움 히어로즈</t>
         </is>
       </c>
       <c r="B4">
@@ -658,26 +658,50 @@
       <c r="H4">
         <v>0.538</v>
       </c>
+      <c r="I4">
+        <v>45.37</v>
+      </c>
+      <c r="J4">
+        <v>2784</v>
+      </c>
+      <c r="K4">
+        <v>1757.662</v>
+      </c>
+      <c r="L4">
+        <v>824</v>
+      </c>
+      <c r="M4">
+        <v>61.23918066820655</v>
+      </c>
+      <c r="N4">
+        <v>424.3999999999999</v>
+      </c>
+      <c r="O4">
+        <v>1157.94</v>
+      </c>
+      <c r="P4">
+        <v>2919</v>
+      </c>
       <c r="Q4">
         <v>3</v>
       </c>
       <c r="R4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U4">
         <v>7</v>
       </c>
       <c r="V4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>7</v>
@@ -738,19 +762,19 @@
         <v>4</v>
       </c>
       <c r="R5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S5">
         <v>3</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U5">
         <v>1</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>3</v>
@@ -820,16 +844,16 @@
         <v>3</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
         <v>2</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X6">
         <v>2</v>
@@ -890,13 +914,13 @@
         <v>6</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U7">
         <v>1</v>
@@ -905,7 +929,7 @@
         <v>3</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <v>2</v>
@@ -966,10 +990,10 @@
         <v>7</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T8">
         <v>3</v>
@@ -978,10 +1002,10 @@
         <v>5</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X8">
         <v>5</v>
@@ -1042,22 +1066,22 @@
         <v>8</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <v>7</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X9">
         <v>1</v>
@@ -1130,10 +1154,10 @@
         <v>3</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X10">
         <v>5</v>
@@ -1194,19 +1218,19 @@
         <v>10</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>6</v>
       </c>
       <c r="V11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W11">
         <v>8</v>
